--- a/src/viewshv_12_04_2023.xlsx
+++ b/src/viewshv_12_04_2023.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,10 +448,10 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>3.3.3.41</v>
+        <v>3.3.3.56</v>
       </c>
       <c r="B2" t="str">
-        <v>CISNEROS SISTEMATIZADO</v>
+        <v>COMERCIO KM 30</v>
       </c>
       <c r="C2" t="str">
         <v>DAGUA</v>
@@ -464,7 +464,7 @@
       </c>
       <c r="F2" t="str" xml:space="preserve">
         <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
-Memoria:        3793        2724         119         165         949         677
+Memoria:        3797        2662         138         158         996         754
 Swap:          2047           4        2043</v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
@@ -474,61 +474,115 @@
 model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
       </c>
       <c r="H2" t="str">
+        <v>Product Name: H310M M.2 2.0</v>
+      </c>
+      <c r="I2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: DVD writer
+       producto: iHAS124   F
+       descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M072L1EJ7HA
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J2" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K2" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L2" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M2" t="str">
+        <v>‘2023-03-24 17:10:27.595659376 -0500’</v>
+      </c>
+      <c r="N2" t="str">
+        <v>‘2023-03-24 17:30:21.983648299 -0500’</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>3.3.3.41</v>
+      </c>
+      <c r="B3" t="str">
+        <v>CISNEROS SISTEMATIZADO</v>
+      </c>
+      <c r="C3" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F3" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2675         136         160         982         731
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G3" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H3" t="str">
         <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
       </c>
-      <c r="I2" t="str" xml:space="preserve">
+      <c r="I3" t="str" xml:space="preserve">
         <v xml:space="preserve">Disco Solido descripción: ATA Disk
        producto: ADATA SU650
        serie: 2M07291EJGDR
        tamaño: 111GiB (120GB)</v>
       </c>
-      <c r="J2" t="str">
-        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
-      </c>
-      <c r="K2" t="str">
-        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
-      </c>
-      <c r="L2" t="str">
-        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
-      </c>
-      <c r="M2" t="str">
+      <c r="J3" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K3" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L3" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M3" t="str">
         <v>‘2023-03-24 17:19:08.394187559 -0500’</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N3" t="str">
         <v>‘2023-03-24 17:36:58.826177631 -0500’</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
         <v>10.40.100.71</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B4" t="str">
         <v>BELLAVISTA SISTEMATIZADO</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C4" t="str">
         <v>DAGUA</v>
       </c>
-      <c r="D3" t="str">
-        <v>Static hostname: gamble</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Operating System: Ubuntu 20.04.3 LTS</v>
-      </c>
-      <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
-Memoria:        3800        2777         150         160         871         633
-Swap:          2047           4        2043</v>
-      </c>
-      <c r="G3" t="str" xml:space="preserve">
+      <c r="D4" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F4" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3800        2792         185         164         822         613
+Swap:          2047          71        1976</v>
+      </c>
+      <c r="G4" t="str" xml:space="preserve">
         <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
 model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
 model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
 model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H4" t="str">
         <v>Product Name: H310CH5-M2</v>
       </c>
-      <c r="I3" t="str" xml:space="preserve">
+      <c r="I4" t="str" xml:space="preserve">
         <v xml:space="preserve">Disco Solido descripción: DVD writer
        producto: iHAS122   F
        descripción: ATA Disk
@@ -536,51 +590,51 @@
        serie: 2L102LC7GHNP
        tamaño: 111GiB (120GB)</v>
       </c>
-      <c r="J3" t="str">
-        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
-      </c>
-      <c r="K3" t="str">
-        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
-      </c>
-      <c r="L3" t="str">
-        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
-      </c>
-      <c r="M3" t="str">
+      <c r="J4" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K4" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L4" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M4" t="str">
         <v>‘2023-03-24 17:10:39.685444122 -0500’</v>
       </c>
-      <c r="N3" t="str">
+      <c r="N4" t="str">
         <v>‘2023-03-24 17:30:01.801412462 -0500’</v>
       </c>
     </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
         <v>10.40.100.70</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B5" t="str">
         <v>ANTIGUO BANCAFE SISTEMATIZADO</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C5" t="str">
         <v>DAGUA</v>
       </c>
-      <c r="D4" t="str">
-        <v>Static hostname: gamble</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Operating System: Ubuntu 20.04.3 LTS</v>
-      </c>
-      <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
-Memoria:        3844        2613         370         101         859         903
-Swap:          2047           3        2044</v>
-      </c>
-      <c r="G4" t="str" xml:space="preserve">
+      <c r="D5" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F5" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3844        2824         136         138         884         656
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G5" t="str" xml:space="preserve">
         <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
 model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H5" t="str">
         <v>Product Name: 0WMJ54</v>
       </c>
-      <c r="I4" t="str" xml:space="preserve">
+      <c r="I5" t="str" xml:space="preserve">
         <v xml:space="preserve">Disco Solido descripción: ATA Disk
        producto: Patriot Burst El
        serie: PBEEDBB210120015546
@@ -588,129 +642,4622 @@
        descripción: DVD reader
        producto: DVD-ROM DV-28SW</v>
       </c>
-      <c r="J4" t="str">
-        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
-      </c>
-      <c r="K4" t="str">
-        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
-      </c>
-      <c r="L4" t="str">
-        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
-      </c>
-      <c r="M4" t="str">
+      <c r="J5" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K5" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L5" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M5" t="str">
         <v>‘2023-03-24 17:14:19.317813987 -0500’</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N5" t="str">
         <v>‘2023-03-24 17:33:49.601777062 -0500’</v>
       </c>
     </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
         <v>10.125.15.37</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B6" t="str">
         <v>SANTA CRUZ</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C6" t="str">
         <v>CENTRO</v>
       </c>
-      <c r="D5" t="str">
-        <v>Static hostname: gamble</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Operating System: Ubuntu 20.04.3 LTS</v>
-      </c>
-      <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
-Memoria:        3793        2834         145         149         813         577
-Swap:          2047          60        1987</v>
-      </c>
-      <c r="G5" t="str" xml:space="preserve">
+      <c r="D6" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F6" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2924         118         157         751         480
+Swap:          2047         273        1774</v>
+      </c>
+      <c r="G6" t="str" xml:space="preserve">
         <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
 model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
 model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
 model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H6" t="str">
         <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
       </c>
-      <c r="I5" t="str" xml:space="preserve">
+      <c r="I6" t="str" xml:space="preserve">
         <v xml:space="preserve">Disco Solido descripción: ATA Disk
        producto: ADATA SU650
        serie: 2L102LSH962C
        tamaño: 111GiB (120GB)</v>
       </c>
-      <c r="J5" t="str">
-        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
-      </c>
-      <c r="K5" t="str">
-        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
-      </c>
-      <c r="L5" t="str">
-        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
-      </c>
-      <c r="M5" t="str">
+      <c r="J6" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K6" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L6" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M6" t="str">
         <v>‘2023-03-24 17:15:13.515088114 -0500’</v>
       </c>
-      <c r="N5" t="str">
+      <c r="N6" t="str">
         <v>‘2023-03-24 17:33:41.555398036 -0500’</v>
       </c>
     </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
         <v>10.125.15.43</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B7" t="str">
         <v>SAN LUIS 3</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C7" t="str">
         <v>CENTRO</v>
       </c>
-      <c r="D6" t="str">
-        <v>Static hostname: gamble</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Operating System: Ubuntu 20.04.3 LTS</v>
-      </c>
-      <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
-Memoria:        3793        2730         165         158         897         675
-Swap:          2047           4        2043</v>
-      </c>
-      <c r="G6" t="str" xml:space="preserve">
+      <c r="D7" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F7" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2921         110         158         762         482
+Swap:          2047          97        1950</v>
+      </c>
+      <c r="G7" t="str" xml:space="preserve">
         <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
 model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
 model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
 model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H7" t="str">
         <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
       </c>
-      <c r="I6" t="str" xml:space="preserve">
+      <c r="I7" t="str" xml:space="preserve">
         <v xml:space="preserve">Disco Solido descripción: ATA Disk
        producto: ADATA SU650
        serie: LLD209R050491
        tamaño: 111GiB (120GB)</v>
       </c>
-      <c r="J6" t="str">
-        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
-      </c>
-      <c r="K6" t="str">
-        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="J7" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K7" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L7" t="str">
         <v>‘2022-11-09 15:29:12.000000000 -0500’</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M7" t="str">
         <v>‘2023-03-24 17:15:30.423335932 -0500’</v>
       </c>
-      <c r="N6" t="str">
+      <c r="N7" t="str">
         <v>‘2023-03-24 17:33:51.490948378 -0500’</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>10.120.11.70</v>
+      </c>
+      <c r="B8" t="str">
+        <v>SAN LUIS 2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F8" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3796        2487         179          78        1129        1008
+Swap:          2047           1        2046</v>
+      </c>
+      <c r="G8" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Product Name: H310CH5-M2</v>
+      </c>
+      <c r="I8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: LLD209R050500
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J8" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K8" t="str">
+        <v>‘2023-03-27 09:18:06.430519311 -0500’</v>
+      </c>
+      <c r="L8" t="str">
+        <v>‘2023-03-27 09:18:58.590520170 -0500’</v>
+      </c>
+      <c r="M8" t="str">
+        <v>‘2023-03-27 09:19:33.066520738 -0500’</v>
+      </c>
+      <c r="N8" t="str">
+        <v>‘2023-03-27 09:19:51.346521039 -0500’</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>10.125.15.42</v>
+      </c>
+      <c r="B9" t="str">
+        <v>SAN LUIS 1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F9" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3805        2305         132         101        1366        1174
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G9" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz
+model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Product Name: H61M-C</v>
+      </c>
+      <c r="I9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M04230EFCD7
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J9" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K9" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L9" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M9" t="str">
+        <v>‘2023-03-24 17:18:04.543491083 -0500’</v>
+      </c>
+      <c r="N9" t="str">
+        <v>‘2023-03-24 17:36:37.151534406 -0500’</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>10.125.15.98</v>
+      </c>
+      <c r="B10" t="str">
+        <v>SAN FRANCISCO</v>
+      </c>
+      <c r="C10" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F10" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        1831        1262         114          79         454         278
+Swap:          2047        1056         991</v>
+      </c>
+      <c r="G10" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4150T CPU @ 3.00GHz
+model name	: Intel(R) Core(TM) i3-4150T CPU @ 3.00GHz
+model name	: Intel(R) Core(TM) i3-4150T CPU @ 3.00GHz
+model name	: Intel(R) Core(TM) i3-4150T CPU @ 3.00GHz</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Product Name: H81</v>
+      </c>
+      <c r="I10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M0223EE2ED1
+       tamaño: 111GiB (120GB)
+       descripción: SCSI Disk
+       producto: Storage Device</v>
+      </c>
+      <c r="J10" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K10" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L10" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M10" t="str">
+        <v>‘2023-03-27 09:18:24.023333855 -0500’</v>
+      </c>
+      <c r="N10" t="str">
+        <v>‘2023-03-27 09:17:44.063333696 -0500’</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>10.125.15.61</v>
+      </c>
+      <c r="B11" t="str">
+        <v>ROCKEFELLER 3</v>
+      </c>
+      <c r="C11" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F11" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        1790        1239          92         130         458         209
+Swap:          2047        1140         907</v>
+      </c>
+      <c r="G11" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz
+model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Product Name: H61M-C</v>
+      </c>
+      <c r="I11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot Burst El
+       serie: PBEEDBB210120015545
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J11" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K11" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L11" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M11" t="str">
+        <v>‘2023-03-27 09:14:44.353773127 -0500’</v>
+      </c>
+      <c r="N11" t="str">
+        <v>‘2023-03-27 09:15:08.344477737 -0500’</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>10.125.15.41</v>
+      </c>
+      <c r="B12" t="str">
+        <v>ROCKEFELLER 2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F12" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3765        2282         348          85        1134        1173
+Swap:          2047           1        2046</v>
+      </c>
+      <c r="G12" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Product Name: PRIME H370M-PLUS</v>
+      </c>
+      <c r="I12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Lexar 128GB SSD
+       serie: LG5397W104022
+       tamaño: 119GiB (128GB)</v>
+      </c>
+      <c r="J12" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K12" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L12" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M12" t="str">
+        <v>‘2023-03-24 17:15:27.771355115 -0500’</v>
+      </c>
+      <c r="N12" t="str">
+        <v>‘2023-03-24 17:33:29.720716351 -0500’</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>10.125.15.40</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ROCKEFELLER</v>
+      </c>
+      <c r="C13" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F13" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7788        3280        2800          97        1707        4159
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G13" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J13" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K13" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L13" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M13" t="str">
+        <v>‘2023-03-24 17:16:54.695433242 -0500’</v>
+      </c>
+      <c r="N13" t="str">
+        <v>‘2023-03-24 17:35:38.735461587 -0500’</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>10.120.11.156</v>
+      </c>
+      <c r="B14" t="str">
+        <v>PUNTA DEL ESTE</v>
+      </c>
+      <c r="C14" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F14" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3768        2414         347         107        1006        1023
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G14" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Product Name: PRIME H370M-PLUS</v>
+      </c>
+      <c r="I14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Lexar 128GB SSD
+       serie: LG5397W104029
+       tamaño: 119GiB (128GB)</v>
+      </c>
+      <c r="J14" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K14" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L14" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M14" t="str">
+        <v>‘2023-03-24 17:12:59.501936908 -0500’</v>
+      </c>
+      <c r="N14" t="str">
+        <v>‘2023-03-24 17:32:06.993926266 -0500’</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>10.125.15.70</v>
+      </c>
+      <c r="B15" t="str">
+        <v>PORTON MARINO</v>
+      </c>
+      <c r="C15" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F15" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3751        2953         131         149         666         420
+Swap:          2047         245        1802</v>
+      </c>
+      <c r="G15" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Product Name: H510M-A PRO (MS-7D22)</v>
+      </c>
+      <c r="I15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot P210 256
+       serie: P210LICA22091411494
+       tamaño: 238GiB (256GB)</v>
+      </c>
+      <c r="J15" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K15" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L15" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M15" t="str">
+        <v>‘2023-03-24 17:14:58.065316377 -0500’</v>
+      </c>
+      <c r="N15" t="str">
+        <v>‘2023-03-24 17:33:32.399628708 -0500’</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>10.120.11.44</v>
+      </c>
+      <c r="B16" t="str">
+        <v>PIÑAL 2</v>
+      </c>
+      <c r="C16" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F16" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3832        2693         107         106        1031         807
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G16" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Celeron(R) CPU G1840 @ 2.80GHz
+model name	: Intel(R) Celeron(R) CPU G1840 @ 2.80GHz</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Product Name: 02YYK5</v>
+      </c>
+      <c r="I16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M0729A4H4EL
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J16" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K16" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L16" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M16" t="str">
+        <v>‘2023-03-24 17:13:18.300811307 -0500’</v>
+      </c>
+      <c r="N16" t="str">
+        <v>‘2023-03-24 17:33:02.044836964 -0500’</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>10.125.15.38</v>
+      </c>
+      <c r="B17" t="str">
+        <v>ORIENTE</v>
+      </c>
+      <c r="C17" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F17" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3842        2561         119         133        1161         923
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G17" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz
+model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz
+model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz
+model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Product Name: 0WMJ54</v>
+      </c>
+      <c r="I17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M042328C231
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J17" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K17" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L17" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M17" t="str">
+        <v>‘2023-03-24 17:16:29.363064308 -0500’</v>
+      </c>
+      <c r="N17" t="str">
+        <v>‘2023-03-24 17:33:50.199088995 -0500’</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>10.125.15.79</v>
+      </c>
+      <c r="B18" t="str">
+        <v>MIRAFLORES 2</v>
+      </c>
+      <c r="C18" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F18" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3768        2316         456         104         996        1116
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G18" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Product Name: PRIME H370M-PLUS</v>
+      </c>
+      <c r="I18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Lexar 128GB SSD
+       serie: LG5397W104020
+       tamaño: 119GiB (128GB)</v>
+      </c>
+      <c r="J18" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K18" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L18" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M18" t="str">
+        <v>‘2023-03-24 17:11:01.181707842 -0500’</v>
+      </c>
+      <c r="N18" t="str">
+        <v>‘2023-03-24 17:29:20.045690791 -0500’</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>10.125.15.75</v>
+      </c>
+      <c r="B19" t="str">
+        <v>MARIA EUGENIA 2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F19" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7785        3292        2537         176        1956        4064
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G19" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J19" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K19" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L19" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M19" t="str">
+        <v>‘2023-03-24 17:18:49.731363158 -0500’</v>
+      </c>
+      <c r="N19" t="str">
+        <v>‘2023-03-24 17:36:37.635390087 -0500’</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>10.125.15.44</v>
+      </c>
+      <c r="B20" t="str">
+        <v>MARIA EUGENIA</v>
+      </c>
+      <c r="C20" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F20" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3830        2560         333         135         936         908
+Swap:          2047           5        2042</v>
+      </c>
+      <c r="G20" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L102LSBHHFC
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J20" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K20" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L20" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M20" t="str">
+        <v>‘2023-03-24 17:16:36.726398339 -0500’</v>
+      </c>
+      <c r="N20" t="str">
+        <v>‘2023-03-24 17:34:32.462388363 -0500’</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>10.125.15.35</v>
+      </c>
+      <c r="B21" t="str">
+        <v>LA 14</v>
+      </c>
+      <c r="C21" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F21" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        1781        1123         148          62         508         385
+Swap:          2047         793        1254</v>
+      </c>
+      <c r="G21" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz
+model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Product Name: H81M-C</v>
+      </c>
+      <c r="I21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L102LCNQHKR
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J21" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K21" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L21" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M21" t="str">
+        <v>‘2023-03-31 11:18:13.770536849 -0500’</v>
+      </c>
+      <c r="N21" t="str">
+        <v>‘2023-03-31 11:20:40.074531487 -0500’</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>10.125.15.34</v>
+      </c>
+      <c r="B22" t="str">
+        <v>KENNEDY 2</v>
+      </c>
+      <c r="C22" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F22" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3837        2647         377         104         812         860
+Swap:          2047          21        2026</v>
+      </c>
+      <c r="G22" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Product Name: H81</v>
+      </c>
+      <c r="I22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M0729AE6BH9
+       tamaño: 111GiB (120GB)
+       descripción: DVD reader
+       producto: DVD-ROM TS-H353B</v>
+      </c>
+      <c r="J22" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K22" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L22" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M22" t="str">
+        <v>‘2023-03-24 17:15:24.644974954 -0500’</v>
+      </c>
+      <c r="N22" t="str">
+        <v>‘2023-03-24 17:33:53.308715517 -0500’</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>10.125.15.33</v>
+      </c>
+      <c r="B23" t="str">
+        <v>KENNEDY</v>
+      </c>
+      <c r="C23" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F23" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3797        2890         143         181         763         499
+Swap:          2047         112        1935</v>
+      </c>
+      <c r="G23" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Product Name: H310CH5-M2</v>
+      </c>
+      <c r="I23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M04232C9D49
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J23" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K23" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L23" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M23" t="str">
+        <v>‘2023-03-06 21:01:40.725664536 -0500’</v>
+      </c>
+      <c r="N23" t="str">
+        <v>‘2023-03-06 21:20:06.405696549 -0500’</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>10.125.15.32</v>
+      </c>
+      <c r="B24" t="str">
+        <v>JUAN 23 II</v>
+      </c>
+      <c r="C24" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F24" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3804        2614         499         114         690         851
+Swap:          2047         221        1826</v>
+      </c>
+      <c r="G24" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz
+model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Product Name: H61M-C</v>
+      </c>
+      <c r="I24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L1029CB2KCX
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J24" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K24" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L24" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M24" t="str">
+        <v>‘2023-03-24 17:15:24.291064873 -0500’</v>
+      </c>
+      <c r="N24" t="str">
+        <v>‘2023-03-24 17:33:48.760951363 -0500’</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>10.125.15.51</v>
+      </c>
+      <c r="B25" t="str">
+        <v>EUCARISTICO</v>
+      </c>
+      <c r="C25" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F25" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3836        2557         415         113         863         943
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G25" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Product Name: H81</v>
+      </c>
+      <c r="I25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L102LCHCNUE
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J25" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K25" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L25" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M25" t="str">
+        <v>‘2023-03-24 17:15:22.433287529 -0500’</v>
+      </c>
+      <c r="N25" t="str">
+        <v>‘2023-03-24 17:33:31.349417281 -0500’</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>10.125.15.83</v>
+      </c>
+      <c r="B26" t="str">
+        <v>EL ESTADIO 2</v>
+      </c>
+      <c r="C26" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F26" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3844        2881         203         105         760         632
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz
+model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Product Name: 0WMJ54</v>
+      </c>
+      <c r="I26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L1029SBCENT
+       tamaño: 111GiB (120GB)
+       descripción: DVD-RAM writer
+       producto: DVD+-RW UJ8E1</v>
+      </c>
+      <c r="J26" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K26" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L26" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M26" t="str">
+        <v>‘2023-03-24 17:15:34.116858588 -0500’</v>
+      </c>
+      <c r="N26" t="str">
+        <v>‘2023-03-24 17:33:33.103591507 -0500’</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>10.125.15.93</v>
+      </c>
+      <c r="B27" t="str">
+        <v>EL CAMPIN</v>
+      </c>
+      <c r="C27" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F27" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3762        2570         159         176        1032         796
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G27" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G2020 @ 2.90GHz
+model name	: Intel(R) Pentium(R) CPU G2020 @ 2.90GHz</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Product Name: DH61CR</v>
+      </c>
+      <c r="I27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L1029CB18CA
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J27" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K27" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L27" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M27" t="str">
+        <v>‘2023-03-24 17:15:29.336716597 -0500’</v>
+      </c>
+      <c r="N27" t="str">
+        <v>‘2023-03-24 17:33:52.333589895 -0500’</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>10.125.15.26</v>
+      </c>
+      <c r="B28" t="str">
+        <v>CHUCHOFONG</v>
+      </c>
+      <c r="C28" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F28" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2765         146         177         882         619
+Swap:          2047           8        2039</v>
+      </c>
+      <c r="G28" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot Burst El
+       serie: PBEEDBB210120011955
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J28" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K28" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L28" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M28" t="str">
+        <v>‘2023-03-24 17:15:03.855010956 -0500’</v>
+      </c>
+      <c r="N28" t="str">
+        <v>‘2023-03-24 17:33:31.814844771 -0500’</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>10.125.15.80</v>
+      </c>
+      <c r="B29" t="str">
+        <v>CEMENTERIO 2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F29" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7789        2664        3994          86        1130        4792
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G29" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J29" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K29" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L29" t="str">
+        <v>‘2023-03-27 08:56:20.255478543 -0500’</v>
+      </c>
+      <c r="M29" t="str">
+        <v>‘2023-03-27 08:55:29.606647593 -0500’</v>
+      </c>
+      <c r="N29" t="str">
+        <v>‘2023-03-27 08:54:51.298728604 -0500’</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>10.125.15.57</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CDA VIA ALTERNA</v>
+      </c>
+      <c r="C30" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F30" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3816        1206        1089          65        1519        2313
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G30" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G4400 @ 3.30GHz
+model name	: Intel(R) Pentium(R) CPU G4400 @ 3.30GHz</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Product Name: H110M PRO-VH PLUS (MS-7A15)</v>
+      </c>
+      <c r="I30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Mecánico descripción: ATA Disk
+       producto: TOSHIBA HDWD110
+       serie: 80JP19XNS
+       tamaño: 931GiB (1TB)
+       descripción: DVD-RAM writer
+       producto: DVDRAM GH22NS40</v>
+      </c>
+      <c r="J30" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.8 RS:38036002";</v>
+      </c>
+      <c r="K30" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L30" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M30" t="str">
+        <v>‘2023-03-27 09:01:55.606859430 -0500’</v>
+      </c>
+      <c r="N30" t="str">
+        <v>‘2023-03-27 09:02:21.013886179 -0500’</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>10.125.15.91</v>
+      </c>
+      <c r="B31" t="str">
+        <v>CDA BUENAVENTURA</v>
+      </c>
+      <c r="C31" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F31" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3803        1766         832          58        1204        1755
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G2020 @ 2.90GHz
+model name	: Intel(R) Pentium(R) CPU G2020 @ 2.90GHz</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Product Name: H61M-C</v>
+      </c>
+      <c r="I31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M0926KQOV2J
+       tamaño: 111GiB (120GB)
+       descripción: SCSI Disk
+       producto: SD/MMC
+       descripción: SCSI Disk
+       producto: Compact Flash
+       descripción: SCSI Disk
+       producto: SM/xD-Picture
+       descripción: SCSI Disk
+       producto: MS/MS-Pro
+       serie: 3</v>
+      </c>
+      <c r="J31" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K31" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L31" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M31" t="str">
+        <v>‘2023-03-24 17:17:39.352166284 -0500’</v>
+      </c>
+      <c r="N31" t="str">
+        <v>‘2023-03-24 17:36:15.360118996 -0500’</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>10.125.15.25</v>
+      </c>
+      <c r="B32" t="str">
+        <v>BOSQUE</v>
+      </c>
+      <c r="C32" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F32" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7789        3009        3090         121        1689        4406
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G32" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J32" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K32" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L32" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M32" t="str">
+        <v>‘2023-03-24 17:17:40.887337845 -0500’</v>
+      </c>
+      <c r="N32" t="str">
+        <v>‘2023-03-24 17:35:48.475365270 -0500’</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>10.125.15.64</v>
+      </c>
+      <c r="B33" t="str">
+        <v>BELLAVISTA 9</v>
+      </c>
+      <c r="C33" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F33" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3796        2490         169         126        1136         955
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G33" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Product Name: H310CH5-M2</v>
+      </c>
+      <c r="I33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L102LSBDS1Y
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J33" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K33" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L33" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M33" t="str">
+        <v>‘2023-03-24 17:01:46.029468579 -0500’</v>
+      </c>
+      <c r="N33" t="str">
+        <v>‘2023-03-24 17:19:47.965445035 -0500’</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>10.125.15.145</v>
+      </c>
+      <c r="B34" t="str">
+        <v>BELLAVISTA 8</v>
+      </c>
+      <c r="C34" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F34" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7789        3054        2835         103        1899        4375
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G34" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J34" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K34" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L34" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M34" t="str">
+        <v>‘2023-03-27 11:41:09.091581842 -0500’</v>
+      </c>
+      <c r="N34" t="str">
+        <v>‘2023-03-27 11:41:38.983582596 -0500’</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>10.125.15.95</v>
+      </c>
+      <c r="B35" t="str">
+        <v>BELLAVISTA 7</v>
+      </c>
+      <c r="C35" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F35" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3836        2153         343          76        1339        1380
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G35" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Product Name: H81</v>
+      </c>
+      <c r="I35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L1029SHDAH7
+       tamaño: 111GiB (120GB)
+       descripción: DVD reader
+       producto: CDRWDVD TS-H493B</v>
+      </c>
+      <c r="J35" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K35" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L35" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M35" t="str">
+        <v>‘2023-03-24 17:15:15.770701777 -0500’</v>
+      </c>
+      <c r="N35" t="str">
+        <v>‘2023-03-24 17:33:28.407257848 -0500’</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>10.125.15.92</v>
+      </c>
+      <c r="B36" t="str">
+        <v>BELLAVISTA 6</v>
+      </c>
+      <c r="C36" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F36" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3794        2351         160         129        1283        1087
+Swap:          2047           1        2046</v>
+      </c>
+      <c r="G36" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz
+model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Product Name: H81M-D PLUS</v>
+      </c>
+      <c r="I36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M072LAEN9ET
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J36" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K36" t="str">
+        <v>‘2022-08-26 17:27:20.000000000 -0500’</v>
+      </c>
+      <c r="L36" t="str">
+        <v>‘2022-11-09 15:29:14.000000000 -0500’</v>
+      </c>
+      <c r="M36" t="str">
+        <v>‘2021-03-10 10:02:36.000000000 -0500’</v>
+      </c>
+      <c r="N36" t="str">
+        <v>‘2020-09-22 16:18:10.000000000 -0500’</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>10.125.15.23</v>
+      </c>
+      <c r="B37" t="str">
+        <v>BELLAVISTA 4 E2</v>
+      </c>
+      <c r="C37" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F37" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7789        3473        2337         183        1977        3874
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G37" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I37" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J37" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K37" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L37" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M37" t="str">
+        <v>‘2023-03-24 17:17:09.419829198 -0500’</v>
+      </c>
+      <c r="N37" t="str">
+        <v>‘2023-03-24 17:35:16.987856622 -0500’</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>10.125.15.20</v>
+      </c>
+      <c r="B38" t="str">
+        <v>BELLAVISTA 3</v>
+      </c>
+      <c r="C38" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F38" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2636         187         155         970         771
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G38" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot Burst El
+       serie: PBEEDBB210120015550
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J38" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K38" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L38" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M38" t="str">
+        <v>‘2023-03-24 17:15:35.725081056 -0500’</v>
+      </c>
+      <c r="N38" t="str">
+        <v>‘2023-03-24 17:33:41.067803886 -0500’</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>10.125.15.19</v>
+      </c>
+      <c r="B39" t="str">
+        <v>BELLAVISTA 2</v>
+      </c>
+      <c r="C39" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F39" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2890         105         175         797         494
+Swap:          2047          32        2015</v>
+      </c>
+      <c r="G39" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M1324L3PYLM
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J39" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K39" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L39" t="str">
+        <v>‘2022-11-09 15:29:12.000000000 -0500’</v>
+      </c>
+      <c r="M39" t="str">
+        <v>‘2023-03-24 17:15:32.219925162 -0500’</v>
+      </c>
+      <c r="N39" t="str">
+        <v>‘2023-03-24 17:33:53.373492359 -0500’</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>10.125.15.21</v>
+      </c>
+      <c r="B40" t="str">
+        <v>BELLAVISTA 10</v>
+      </c>
+      <c r="C40" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F40" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3765        2272         325          83        1166        1179
+Swap:          2047           1        2046</v>
+      </c>
+      <c r="G40" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Product Name: PRIME H370M-PLUS</v>
+      </c>
+      <c r="I40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Lexar 128GB SSD
+       serie: LE6133W103630
+       tamaño: 119GiB (128GB)</v>
+      </c>
+      <c r="J40" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K40" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L40" t="str">
+        <v>‘2023-01-05 12:18:52.000000000 -0500’</v>
+      </c>
+      <c r="M40" t="str">
+        <v>‘2023-03-24 17:14:31.226370411 -0500’</v>
+      </c>
+      <c r="N40" t="str">
+        <v>‘2023-03-24 17:32:43.822373920 -0500’</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>10.125.15.65</v>
+      </c>
+      <c r="B41" t="str">
+        <v>BELLAVISTA 1</v>
+      </c>
+      <c r="C41" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F41" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3765        2351         107         131        1306        1052
+Swap:          2047           1        2046</v>
+      </c>
+      <c r="G41" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Product Name: PRIME H370M-PLUS</v>
+      </c>
+      <c r="I41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Lexar 128GB SSD
+       serie: LG5397W104018
+       tamaño: 119GiB (128GB)</v>
+      </c>
+      <c r="J41" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K41" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L41" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M41" t="str">
+        <v>‘2023-03-24 17:15:14.567040094 -0500’</v>
+      </c>
+      <c r="N41" t="str">
+        <v>‘2023-03-24 17:33:48.779328431 -0500’</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>10.125.15.36</v>
+      </c>
+      <c r="B42" t="str">
+        <v>14 DE JULIO 2</v>
+      </c>
+      <c r="C42" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F42" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2860         123         137         810         565
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G42" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L072L1NJBGC
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J42" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K42" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L42" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M42" t="str">
+        <v>‘2023-03-24 17:15:03.036879447 -0500’</v>
+      </c>
+      <c r="N42" t="str">
+        <v>‘2023-03-24 17:33:26.665435758 -0500’</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>192.168.41.13</v>
+      </c>
+      <c r="B43" t="str">
+        <v>DEMO</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F43" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7817        2084        1254         122        4477        5318
+Swap:          2047         526        1521</v>
+      </c>
+      <c r="G43" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot Burst El
+       serie: PBEEDBB210120011937
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J43" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K43" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L43" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M43" t="str">
+        <v>‘2023-02-13 19:05:36.000000000 -0500’</v>
+      </c>
+      <c r="N43" t="str">
+        <v>‘2023-02-13 18:57:42.000000000 -0500’</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>10.120.11.9</v>
+      </c>
+      <c r="B44" t="str">
+        <v>GIPPEZ E2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F44" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3791        2788         104         156         897         614
+Swap:          2047         178        1869</v>
+      </c>
+      <c r="G44" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I44" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L07291NGCLG
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J44" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K44" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L44" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M44" t="str">
+        <v>‘2023-02-13 19:05:36.000000000 -0500’</v>
+      </c>
+      <c r="N44" t="str">
+        <v>‘2023-02-13 18:57:42.000000000 -0500’</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>10.120.11.10</v>
+      </c>
+      <c r="B45" t="str">
+        <v>GIPPEZ E1</v>
+      </c>
+      <c r="C45" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F45" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3791        2716         128         126         946         717
+Swap:          2047          55        1992</v>
+      </c>
+      <c r="G45" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I45" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot Burst El
+       serie: PBEEDBB210120010705
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J45" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K45" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L45" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M45" t="str">
+        <v>‘2023-02-13 19:05:36.000000000 -0500’</v>
+      </c>
+      <c r="N45" t="str">
+        <v>‘2023-02-13 18:57:42.000000000 -0500’</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>10.120.11.65</v>
+      </c>
+      <c r="B46" t="str">
+        <v>GALERIA</v>
+      </c>
+      <c r="C46" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F46" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2968         112         162         713         432
+Swap:          2047         414        1633</v>
+      </c>
+      <c r="G46" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I46" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot P210 256
+       serie: P210ECBB22012300761
+       tamaño: 238GiB (256GB)</v>
+      </c>
+      <c r="J46" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K46" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L46" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M46" t="str">
+        <v>‘2023-03-27 09:19:35.047316010 -0500’</v>
+      </c>
+      <c r="N46" t="str">
+        <v>‘2023-03-27 09:19:57.079947287 -0500’</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>10.120.11.20</v>
+      </c>
+      <c r="B47" t="str">
+        <v>FUNERARIA</v>
+      </c>
+      <c r="C47" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F47" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3796        2319         350         140        1126        1114
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G47" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz
+model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Product Name: H81M-C</v>
+      </c>
+      <c r="I47" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M0829AJ1DG1
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J47" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K47" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L47" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M47" t="str">
+        <v>‘2023-03-24 17:13:00.562088857 -0500’</v>
+      </c>
+      <c r="N47" t="str">
+        <v>‘2023-03-24 17:32:40.426045616 -0500’</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>10.120.11.22</v>
+      </c>
+      <c r="B48" t="str">
+        <v>FIRME</v>
+      </c>
+      <c r="C48" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F48" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2407         119         113        1266        1049
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G48" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz
+model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Product Name: H81M-D PLUS</v>
+      </c>
+      <c r="I48" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M0423M9567I
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J48" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K48" t="str">
+        <v>‘2023-03-27 09:20:53.837027809 -0500’</v>
+      </c>
+      <c r="L48" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M48" t="str">
+        <v>‘2023-02-13 19:05:36.000000000 -0500’</v>
+      </c>
+      <c r="N48" t="str">
+        <v>‘2023-02-13 18:57:42.000000000 -0500’</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>10.120.11.204</v>
+      </c>
+      <c r="B49" t="str">
+        <v>EL VELERO</v>
+      </c>
+      <c r="C49" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F49" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3844        3001         136         164         706         453
+Swap:          2047          54        1993</v>
+      </c>
+      <c r="G49" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Product Name: 0WMJ54</v>
+      </c>
+      <c r="I49" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Mecánico descripción: ATA Disk
+       producto: ST500DM002-1BD14
+       serie: Z2AL2XDK
+       tamaño: 465GiB (500GB)</v>
+      </c>
+      <c r="J49" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K49" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L49" t="str">
+        <v>‘2023-03-28 11:01:44.154990688 -0500’</v>
+      </c>
+      <c r="M49" t="str">
+        <v>‘2023-03-28 11:02:40.218989979 -0500’</v>
+      </c>
+      <c r="N49" t="str">
+        <v>‘2023-03-28 11:03:19.722989480 -0500’</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>10.120.11.149</v>
+      </c>
+      <c r="B50" t="str">
+        <v>EL FIRME 3</v>
+      </c>
+      <c r="C50" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F50" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3849        2585         167         126        1097         915
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G50" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Celeron(R) CPU G1840 @ 2.80GHz
+model name	: Intel(R) Celeron(R) CPU G1840 @ 2.80GHz</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Product Name: SHARKBAY</v>
+      </c>
+      <c r="I50" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: DVD writer
+       producto: iHAS124   F
+       descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M042382851B
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J50" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K50" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L50" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M50" t="str">
+        <v>‘2023-02-13 19:05:36.000000000 -0500’</v>
+      </c>
+      <c r="N50" t="str">
+        <v>‘2023-02-13 18:57:42.000000000 -0500’</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>10.120.11.240</v>
+      </c>
+      <c r="B51" t="str">
+        <v>EL FIRME 2</v>
+      </c>
+      <c r="C51" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F51" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        1790        1217         126         131         445         232
+Swap:          2047         886        1161</v>
+      </c>
+      <c r="G51" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz
+model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Product Name: H61M-C</v>
+      </c>
+      <c r="I51" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot Burst El
+       serie: PBEEDBB210120011960
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J51" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K51" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L51" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M51" t="str">
+        <v>‘2023-03-24 17:13:22.645148940 -0500’</v>
+      </c>
+      <c r="N51" t="str">
+        <v>‘2023-03-24 17:33:03.092545229 -0500’</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>10.120.11.121</v>
+      </c>
+      <c r="B52" t="str">
+        <v>CORDILLERA 3</v>
+      </c>
+      <c r="C52" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F52" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        1779        1185         131         156         462         229
+Swap:          2047        1043        1004</v>
+      </c>
+      <c r="G52" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz
+model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Product Name: H81M-C</v>
+      </c>
+      <c r="I52" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: DVD writer
+       producto: iHAS122   F
+       descripción: ATA Disk
+       producto: SATA3 128GB SSD
+       serie: 2020082000076
+       tamaño: 119GiB (128GB)</v>
+      </c>
+      <c r="J52" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K52" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L52" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M52" t="str">
+        <v>‘2023-02-13 19:05:36.000000000 -0500’</v>
+      </c>
+      <c r="N52" t="str">
+        <v>‘2023-02-13 18:57:42.000000000 -0500’</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>10.120.11.150</v>
+      </c>
+      <c r="B53" t="str">
+        <v>CORDILLERA 2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F53" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2631         133         138        1029         796
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G53" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I53" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L072L178ALJ
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J53" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K53" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L53" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M53" t="str">
+        <v>‘2023-03-24 17:15:01.615142523 -0500’</v>
+      </c>
+      <c r="N53" t="str">
+        <v>‘2023-03-24 17:34:37.267167401 -0500’</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>10.120.11.84</v>
+      </c>
+      <c r="B54" t="str">
+        <v>CORDILLERA</v>
+      </c>
+      <c r="C54" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F54" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7788        3271        2905         125        1612        4138
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G54" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I54" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J54" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K54" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L54" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M54" t="str">
+        <v>‘2023-03-24 17:14:01.115583790 -0500’</v>
+      </c>
+      <c r="N54" t="str">
+        <v>‘2023-03-24 17:33:53.719613863 -0500’</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>10.120.11.61</v>
+      </c>
+      <c r="B55" t="str">
+        <v>CINCO BOCAS E2</v>
+      </c>
+      <c r="C55" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F55" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2875         150         147         767         538
+Swap:          2047         169        1878</v>
+      </c>
+      <c r="G55" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I55" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot Burst El
+       serie: PBEEDBB210120025650
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J55" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K55" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L55" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M55" t="str">
+        <v>‘2023-03-24 17:14:39.522196559 -0500’</v>
+      </c>
+      <c r="N55" t="str">
+        <v>‘2023-03-24 17:33:46.122178767 -0500’</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>10.120.11.60</v>
+      </c>
+      <c r="B56" t="str">
+        <v>CINCO BOCAS E1</v>
+      </c>
+      <c r="C56" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F56" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3768        2726         341          92         700         721
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G56" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Product Name: PRIME H370M-PLUS</v>
+      </c>
+      <c r="I56" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M0729AEH5F9
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J56" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K56" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L56" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M56" t="str">
+        <v>‘2023-03-24 17:13:00.754096650 -0500’</v>
+      </c>
+      <c r="N56" t="str">
+        <v>‘2023-03-24 17:32:43.198078301 -0500’</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>172.16.20.117</v>
+      </c>
+      <c r="B57" t="str">
+        <v>CHORLAVI E4</v>
+      </c>
+      <c r="C57" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F57" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2990         136         160         666         413
+Swap:          2047         235        1812</v>
+      </c>
+      <c r="G57" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I57" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L102LSNKBPH
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J57" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K57" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L57" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M57" t="str">
+        <v>‘2023-03-24 17:16:36.796883047 -0500’</v>
+      </c>
+      <c r="N57" t="str">
+        <v>‘2023-03-24 17:36:44.212871849 -0500’</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>172.16.20.116</v>
+      </c>
+      <c r="B58" t="str">
+        <v>CHORLAVI E3</v>
+      </c>
+      <c r="C58" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F58" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3751        2988         126         178         636         356
+Swap:          2047         148        1899</v>
+      </c>
+      <c r="G58" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Product Name: H510M-A PRO (MS-7D22)</v>
+      </c>
+      <c r="I58" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot P210 256
+       serie: P210LICA22091413910
+       tamaño: 238GiB (256GB)</v>
+      </c>
+      <c r="J58" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K58" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L58" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M58" t="str">
+        <v>‘2023-03-24 17:13:31.011353666 -0500’</v>
+      </c>
+      <c r="N58" t="str">
+        <v>‘2023-03-24 17:33:26.083364110 -0500’</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>172.16.20.115</v>
+      </c>
+      <c r="B59" t="str">
+        <v>CHORLAVI E2</v>
+      </c>
+      <c r="C59" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F59" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2671         125         184         997         709
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G59" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I59" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L0729AN87XL
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J59" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K59" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L59" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M59" t="str">
+        <v>‘2023-03-24 17:17:56.889468272 -0500’</v>
+      </c>
+      <c r="N59" t="str">
+        <v>‘2023-03-24 17:38:24.833456884 -0500’</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>10.120.11.85</v>
+      </c>
+      <c r="B60" t="str">
+        <v>CHONTICO</v>
+      </c>
+      <c r="C60" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F60" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3535        2782         144         168         608         354
+Swap:          2047         320        1727</v>
+      </c>
+      <c r="G60" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Product Name: H510M-HVS</v>
+      </c>
+      <c r="I60" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot P210 256
+       serie: P210ECBB22012303718
+       tamaño: 238GiB (256GB)</v>
+      </c>
+      <c r="J60" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K60" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L60" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M60" t="str">
+        <v>‘2023-03-24 17:10:54.142640427 -0500’</v>
+      </c>
+      <c r="N60" t="str">
+        <v>‘2023-03-24 17:30:56.906638661 -0500’</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>10.120.11.25</v>
+      </c>
+      <c r="B61" t="str">
+        <v>CASABLANCA</v>
+      </c>
+      <c r="C61" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F61" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7785        4215        1996         172        1574        3144
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G61" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I61" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J61" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K61" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L61" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M61" t="str">
+        <v>‘2023-03-24 17:15:20.982705677 -0500’</v>
+      </c>
+      <c r="N61" t="str">
+        <v>‘2023-03-24 17:35:30.666736181 -0500’</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>10.120.11.145</v>
+      </c>
+      <c r="B62" t="str">
+        <v>CAPRICHO</v>
+      </c>
+      <c r="C62" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F62" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3837        3091         112         153         634         363
+Swap:          2047         602        1445</v>
+      </c>
+      <c r="G62" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4160 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-4160 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-4160 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-4160 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Product Name: H81</v>
+      </c>
+      <c r="I62" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M02237AFDC1
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J62" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K62" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L62" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M62" t="str">
+        <v>‘2023-03-24 17:14:22.191645580 -0500’</v>
+      </c>
+      <c r="N62" t="str">
+        <v>‘2023-03-24 17:33:18.810868358 -0500’</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>10.120.11.55</v>
+      </c>
+      <c r="B63" t="str">
+        <v>ARGENTINA E2</v>
+      </c>
+      <c r="C63" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F63" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7785        3843        2060         132        1882        3555
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G63" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I63" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J63" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K63" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L63" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M63" t="str">
+        <v>‘2023-03-24 17:16:01.370462084 -0500’</v>
+      </c>
+      <c r="N63" t="str">
+        <v>‘2023-03-24 17:35:53.326492141 -0500’</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>10.120.11.57</v>
+      </c>
+      <c r="B64" t="str">
+        <v>ARGENTINA E1</v>
+      </c>
+      <c r="C64" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F64" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3796         585        2466           1         745        2992
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G64" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Product Name: H310CH5-M2</v>
+      </c>
+      <c r="I64" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M02232BA15C
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J64" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K64" t="str">
+        <v>‘2023-03-28 11:00:10.980147625 -0500’</v>
+      </c>
+      <c r="L64" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M64" t="str">
+        <v>‘2023-02-13 19:05:36.000000000 -0500’</v>
+      </c>
+      <c r="N64" t="str">
+        <v>‘2023-02-13 18:57:42.000000000 -0500’</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>10.100.10.10</v>
+      </c>
+      <c r="B65" t="str">
+        <v>ALTOS DE LA BAHIA E1</v>
+      </c>
+      <c r="C65" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F65" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7785        2935        3460         142        1389        4454
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G65" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I65" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J65" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K65" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L65" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M65" t="str">
+        <v>‘2023-03-24 17:15:03.722987939 -0500’</v>
+      </c>
+      <c r="N65" t="str">
+        <v>‘2023-03-24 17:34:59.827018100 -0500’</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>10.120.11.115</v>
+      </c>
+      <c r="B66" t="str">
+        <v>ALCALDIA</v>
+      </c>
+      <c r="C66" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F66" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3800        2346         382         129        1071        1102
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G66" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Product Name: H310CH5-M2</v>
+      </c>
+      <c r="I66" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 4M092K8L0L4C
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J66" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K66" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L66" t="str">
+        <v>‘2023-01-05 12:18:52.000000000 -0500’</v>
+      </c>
+      <c r="M66" t="str">
+        <v>‘2023-03-24 17:13:07.360257823 -0500’</v>
+      </c>
+      <c r="N66" t="str">
+        <v>‘2023-03-24 17:33:20.192429915 -0500’</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>10.120.11.26</v>
+      </c>
+      <c r="B67" t="str">
+        <v>1 DE MAYO E2</v>
+      </c>
+      <c r="C67" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F67" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        1790        1198         101         137         489         243
+Swap:          2047        1069         978</v>
+      </c>
+      <c r="G67" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz
+model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Product Name: H61M-C</v>
+      </c>
+      <c r="I67" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Mecánico descripción: ATA Disk
+       producto: WDC WD10EZEX-08W
+       serie: WD-WCC6Y7TAF954
+       tamaño: 931GiB (1TB)</v>
+      </c>
+      <c r="J67" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K67" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L67" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M67" t="str">
+        <v>‘2023-03-24 16:58:02.639132805 -0500’</v>
+      </c>
+      <c r="N67" t="str">
+        <v>‘2023-03-24 17:18:29.647180583 -0500’</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>3.3.3.26</v>
+      </c>
+      <c r="B68" t="str">
+        <v>TRAGEDIAS SISTEMATIZADO</v>
+      </c>
+      <c r="C68" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F68" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3800        2651         369          86         778         835
+Swap:          2047           6        2041</v>
+      </c>
+      <c r="G68" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Product Name: H310CH5-M2</v>
+      </c>
+      <c r="I68" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L1029SNH6RY
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J68" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K68" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L68" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M68" t="str">
+        <v>‘2023-03-24 17:13:46.951427890 -0500’</v>
+      </c>
+      <c r="N68" t="str">
+        <v>‘2023-03-24 17:33:36.283462325 -0500’</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
+        <v>10.40.100.72</v>
+      </c>
+      <c r="B69" t="str">
+        <v>RICAURTE SISTEMATIZADO</v>
+      </c>
+      <c r="C69" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F69" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2157         404          78        1232        1331
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G69" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I69" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M072914HGUY
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J69" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K69" t="str">
+        <v>‘2023-03-07 10:31:57.000000000 -0500’</v>
+      </c>
+      <c r="L69" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M69" t="str">
+        <v>‘2023-03-24 17:18:14.486001902 -0500’</v>
+      </c>
+      <c r="N69" t="str">
+        <v>‘2023-03-24 17:37:18.145977015 -0500’</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>3.3.3.3</v>
+      </c>
+      <c r="B70" t="str">
+        <v>QUEREMAL- SISTEMATIZADO</v>
+      </c>
+      <c r="C70" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F70" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7819        3324        3098         190        1396        4055
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G70" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I70" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L102LCB74K7
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J70" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K70" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L70" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M70" t="str">
+        <v>‘2023-03-24 17:13:53.327119707 -0500’</v>
+      </c>
+      <c r="N70" t="str">
+        <v>‘2023-03-24 17:33:39.764435425 -0500’</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>3.3.3.22</v>
+      </c>
+      <c r="B71" t="str">
+        <v>PUEBLO NUEVO2</v>
+      </c>
+      <c r="C71" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F71" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3844        2074         643          70        1125        1473
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G71" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz
+model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz
+model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz
+model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Product Name: 0WMJ54</v>
+      </c>
+      <c r="I71" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M0729AE8EDT
+       tamaño: 111GiB (120GB)
+       descripción: DVD-RAM writer
+       producto: DVD+-RW UJ8E1</v>
+      </c>
+      <c r="J71" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K71" t="str">
+        <v>‘2023-03-07 10:31:57.000000000 -0500’</v>
+      </c>
+      <c r="L71" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M71" t="str">
+        <v>‘2023-03-24 17:15:56.527463571 -0500’</v>
+      </c>
+      <c r="N71" t="str">
+        <v>‘2023-03-24 17:35:53.019468089 -0500’</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>3.3.3.23</v>
+      </c>
+      <c r="B72" t="str">
+        <v>PALMAR 2</v>
+      </c>
+      <c r="C72" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F72" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3797        2926         100         126         771         516
+Swap:          2047         112        1935</v>
+      </c>
+      <c r="G72" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H72" t="str">
+        <v>Product Name: H310M M.2 2.0</v>
+      </c>
+      <c r="I72" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: DVD writer
+       producto: iHAS124   F
+       descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M07291EAJUD
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J72" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K72" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L72" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M72" t="str">
+        <v>‘2023-03-24 17:13:34.031289328 -0500’</v>
+      </c>
+      <c r="N72" t="str">
+        <v>‘2023-03-24 17:33:03.407271182 -0500’</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>10.40.100.74</v>
+      </c>
+      <c r="B73" t="str">
+        <v>MAGDALENA SISTEMATIZADO</v>
+      </c>
+      <c r="C73" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F73" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3767        2838         130         167         798         529
+Swap:          2047         107        1940</v>
+      </c>
+      <c r="G73" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Product Name: PRIME H370M-PLUS</v>
+      </c>
+      <c r="I73" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L1029SBBGJJ
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J73" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K73" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L73" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M73" t="str">
+        <v>‘2023-03-24 17:13:18.882439618 -0500’</v>
+      </c>
+      <c r="N73" t="str">
+        <v>‘2023-03-24 17:32:25.418476360 -0500’</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>10.29.1.14</v>
+      </c>
+      <c r="B74" t="str">
+        <v>LA PAZ SISTEMATIZADO</v>
+      </c>
+      <c r="C74" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F74" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2413         338          89        1042        1062
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G74" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I74" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot Burst El
+       serie: PBEEDBB210120015530
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J74" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K74" t="str">
+        <v>‘2023-03-07 10:31:57.000000000 -0500’</v>
+      </c>
+      <c r="L74" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M74" t="str">
+        <v>‘2023-03-27 09:13:22.042319361 -0500’</v>
+      </c>
+      <c r="N74" t="str">
+        <v>‘2023-03-27 09:14:28.490318745 -0500’</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
+        <v>3.3.3.2</v>
+      </c>
+      <c r="B75" t="str">
+        <v>KM30 SISTEMATIZADO</v>
+      </c>
+      <c r="C75" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F75" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2859         160         153         773         546
+Swap:          2047          82        1965</v>
+      </c>
+      <c r="G75" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I75" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L102LCNHJX9
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J75" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K75" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L75" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M75" t="str">
+        <v>‘2023-03-24 17:19:20.238336783 -0500’</v>
+      </c>
+      <c r="N75" t="str">
+        <v>‘2023-03-24 17:39:10.886325741 -0500’</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>3.3.3.38</v>
+      </c>
+      <c r="B76" t="str">
+        <v>KM 26 PUNTO SISTEMATIZADO</v>
+      </c>
+      <c r="C76" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F76" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2310         286          82        1196        1173
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G76" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H76" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I76" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L1029S78BKW
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J76" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K76" t="str">
+        <v>‘2023-03-07 10:31:57.000000000 -0500’</v>
+      </c>
+      <c r="L76" t="str">
+        <v>‘2023-01-04 17:48:11.000000000 -0500’</v>
+      </c>
+      <c r="M76" t="str">
+        <v>‘2023-03-24 17:13:29.378969544 -0500’</v>
+      </c>
+      <c r="N76" t="str">
+        <v>‘2023-03-24 17:33:43.014958289 -0500’</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>3.3.3.18</v>
+      </c>
+      <c r="B77" t="str">
+        <v>KM 26 PARTE ALTA</v>
+      </c>
+      <c r="C77" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F77" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3766        2301         241          81        1223        1153
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G77" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-8100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-8100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-8100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-8100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Product Name: PRIME H310-PLUS</v>
+      </c>
+      <c r="I77" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L1029C7N5XW
+       tamaño: 111GiB (120GB)
+       descripción: DVD writer
+       producto: iHAS122   F</v>
+      </c>
+      <c r="J77" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K77" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L77" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M77" t="str">
+        <v>‘2023-03-24 17:14:11.528524845 -0500’</v>
+      </c>
+      <c r="N77" t="str">
+        <v>‘2023-03-24 17:33:15.884507087 -0500’</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>10.40.100.91</v>
+      </c>
+      <c r="B78" t="str">
+        <v>HOSPITAL 2</v>
+      </c>
+      <c r="C78" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F78" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3796        2731         118         141         945         695
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G78" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-8100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-8100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-8100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-8100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Product Name: H310M PRO-VDH (MS-7B29)</v>
+      </c>
+      <c r="I78" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M072L149GJY
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J78" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K78" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L78" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M78" t="str">
+        <v>‘2023-03-24 17:17:53.731233841 -0500’</v>
+      </c>
+      <c r="N78" t="str">
+        <v>‘2023-03-24 17:37:20.347266720 -0500’</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>10.40.100.84</v>
+      </c>
+      <c r="B79" t="str">
+        <v>EL VERGEL</v>
+      </c>
+      <c r="C79" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F79" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3846        2227         398          61        1220        1333
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G79" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Product Name: H81</v>
+      </c>
+      <c r="I79" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Mecánico descripción: ATA Disk
+       producto: WDC WD10EZEX-21W
+       serie: WCC6Y1ALEVV8
+       tamaño: 931GiB (1TB)</v>
+      </c>
+      <c r="J79" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K79" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L79" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M79" t="str">
+        <v>‘2023-03-24 17:14:18.978966314 -0500’</v>
+      </c>
+      <c r="N79" t="str">
+        <v>‘2023-03-24 17:33:39.746951642 -0500’</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>10.40.100.73</v>
+      </c>
+      <c r="B80" t="str">
+        <v>DAGUA CENTRAL SISTEMATIZADO</v>
+      </c>
+      <c r="C80" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F80" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3849        2988         117         117         743         519
+Swap:          2047         197        1850</v>
+      </c>
+      <c r="G80" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4170 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-4170 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-4170 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-4170 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H80" t="str">
+        <v>Product Name: H81</v>
+      </c>
+      <c r="I80" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L072L178CLU
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J80" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K80" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L80" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M80" t="str">
+        <v>‘2023-03-24 17:16:14.134969313 -0500’</v>
+      </c>
+      <c r="N80" t="str">
+        <v>‘2023-03-24 17:36:03.310970450 -0500’</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>10.40.100.81</v>
+      </c>
+      <c r="B81" t="str">
+        <v>CORREGIMIENTO EL CARMEN</v>
+      </c>
+      <c r="C81" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F81" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3844        2488         356          63         999        1067
+Swap:          2047           4        2043</v>
+      </c>
+      <c r="G81" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz
+model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz
+model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz
+model name	: Intel(R) Core(TM) i3-4150 CPU @ 3.50GHz</v>
+      </c>
+      <c r="H81" t="str">
+        <v>Product Name: 0WMJ54</v>
+      </c>
+      <c r="I81" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M0729A4BNGC
+       tamaño: 111GiB (120GB)
+       descripción: DVD-RAM writer
+       producto: DVD+-RW UJ8E1</v>
+      </c>
+      <c r="J81" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K81" t="str">
+        <v>‘2023-03-07 10:31:57.000000000 -0500’</v>
+      </c>
+      <c r="L81" t="str">
+        <v>‘2023-01-04 17:48:11.000000000 -0500’</v>
+      </c>
+      <c r="M81" t="str">
+        <v>‘2023-03-24 17:14:09.171466199 -0500’</v>
+      </c>
+      <c r="N81" t="str">
+        <v>‘2023-03-24 17:33:20.051485846 -0500’</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>3.3.3.17</v>
+      </c>
+      <c r="B82" t="str">
+        <v>EL MULERO</v>
+      </c>
+      <c r="C82" t="str">
+        <v>SUR</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F82" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:         810         510          59          77         240         100
+Swap:          2047        1643         404</v>
+      </c>
+      <c r="G82" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz
+model name	: Intel(R) Core(TM) i3-4130 CPU @ 3.40GHz</v>
+      </c>
+      <c r="H82" t="str">
+        <v>Product Name: 18E7</v>
+      </c>
+      <c r="I82" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Lexar 128GB SSD
+       serie: LG5397W104028
+       tamaño: 119GiB (128GB)
+       descripción: DVD-RAM writer
+       producto: CDDVDW SN-208FB</v>
+      </c>
+      <c r="J82" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K82" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L82" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M82" t="str">
+        <v>‘2023-03-30 09:31:25.782807506 -0500’</v>
+      </c>
+      <c r="N82" t="str">
+        <v>‘2023-03-30 09:32:05.990807915 -0500’</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>10.125.17.62</v>
+      </c>
+      <c r="B83" t="str">
+        <v>EL COLON</v>
+      </c>
+      <c r="C83" t="str">
+        <v>SUR</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F83" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3800        2941         166         101         691         530
+Swap:          2047         265        1782</v>
+      </c>
+      <c r="G83" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H83" t="str">
+        <v>Product Name: H310CH5-M2</v>
+      </c>
+      <c r="I83" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Mecánico descripción: ATA Disk
+       producto: TOSHIBA HDWD110
+       serie: 80JNY17FS
+       tamaño: 931GiB (1TB)</v>
+      </c>
+      <c r="J83" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K83" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L83" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M83" t="str">
+        <v>‘2023-03-24 17:13:51.948723448 -0500’</v>
+      </c>
+      <c r="N83" t="str">
+        <v>‘2023-03-24 17:33:54.555784383 -0500’</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>10.125.17.33</v>
+      </c>
+      <c r="B84" t="str">
+        <v>EL CAMBIO</v>
+      </c>
+      <c r="C84" t="str">
+        <v>SUR</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F84" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2680         165         141         947         739
+Swap:          2047         103        1944</v>
+      </c>
+      <c r="G84" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H84" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I84" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L072L1HEAX2
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J84" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K84" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L84" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M84" t="str">
+        <v>‘2023-03-24 17:13:26.067176518 -0500’</v>
+      </c>
+      <c r="N84" t="str">
+        <v>‘2023-03-24 17:33:21.432404245 -0500’</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
+        <v>10.125.17.67</v>
+      </c>
+      <c r="B85" t="str">
+        <v>CRISTAL 2</v>
+      </c>
+      <c r="C85" t="str">
+        <v>SUR</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F85" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7819        2674        3908          92        1237        4810
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G85" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H85" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I85" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L072L17NJLR
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J85" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K85" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L85" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M85" t="str">
+        <v>‘2023-03-24 17:14:26.974007166 -0500’</v>
+      </c>
+      <c r="N85" t="str">
+        <v>‘2023-03-24 17:34:10.550569424 -0500’</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>10.125.17.32</v>
+      </c>
+      <c r="B86" t="str">
+        <v>CRISTAL</v>
+      </c>
+      <c r="C86" t="str">
+        <v>SUR</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F86" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3798        2605         173         135        1019         835
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G86" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz
+model name	: Intel(R) Pentium(R) CPU G3260 @ 3.30GHz</v>
+      </c>
+      <c r="H86" t="str">
+        <v>Product Name: H81M-C</v>
+      </c>
+      <c r="I86" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Mecánico descripción: ATA Disk
+       producto: ST3500418AS
+       serie: 9VM1XEYY
+       tamaño: 465GiB (500GB)
+       descripción: SCSI Disk
+       producto: Storage Device</v>
+      </c>
+      <c r="J86" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K86" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L86" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M86" t="str">
+        <v>‘2023-03-24 17:14:52.298858222 -0500’</v>
+      </c>
+      <c r="N86" t="str">
+        <v>‘2023-03-24 17:34:42.474829856 -0500’</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
+        <v>3.3.3.58</v>
+      </c>
+      <c r="B87" t="str">
+        <v>CORDOBA_SUR</v>
+      </c>
+      <c r="C87" t="str">
+        <v>SUR</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F87" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3797        2479         142         133        1174         959
+Swap:          2047           3        2044</v>
+      </c>
+      <c r="G87" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H87" t="str">
+        <v>Product Name: H310M M.2 2.0</v>
+      </c>
+      <c r="I87" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot Burst El
+       serie: PBEEDBB210120015531
+       tamaño: 111GiB (120GB)
+       descripción: DVD writer
+       producto: iHAS124   F</v>
+      </c>
+      <c r="J87" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K87" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L87" t="str">
+        <v>‘2023-01-04 17:48:11.000000000 -0500’</v>
+      </c>
+      <c r="M87" t="str">
+        <v>‘2023-03-24 17:07:22.995824381 -0500’</v>
+      </c>
+      <c r="N87" t="str">
+        <v>‘2023-03-24 17:26:18.855806756 -0500’</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
+        <v>3.3.3.44</v>
+      </c>
+      <c r="B88" t="str">
+        <v>CIUDADELA COLPUERTOS</v>
+      </c>
+      <c r="C88" t="str">
+        <v>SUR</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F88" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3837        2318         153         114        1365        1185
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G88" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G3240 @ 3.10GHz
+model name	: Intel(R) Pentium(R) CPU G3240 @ 3.10GHz</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Product Name: H81</v>
+      </c>
+      <c r="I88" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Mecánico descripción: ATA Disk
+       producto: TOSHIBA DT01ACA0
+       serie: 18SUJDVAS
+       tamaño: 465GiB (500GB)</v>
+      </c>
+      <c r="J88" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K88" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L88" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M88" t="str">
+        <v>‘2023-03-24 17:14:11.445574024 -0500’</v>
+      </c>
+      <c r="N88" t="str">
+        <v>‘2023-03-24 17:33:59.002598766 -0500’</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
+        <v>10.120.11.214</v>
+      </c>
+      <c r="B89" t="str">
+        <v>BETPLAY CORDILLERA 4 E2</v>
+      </c>
+      <c r="C89" t="str">
+        <v>NORTE</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F89" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        7785        3462        2916         143        1406        3934
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G89" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz
+model name	: Intel(R) Core(TM) i3-10105 CPU @ 3.70GHz</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Product Name: PRIME H410M-E</v>
+      </c>
+      <c r="I89" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: NVMe namespace
+       tamaño: 232GiB (250GB)</v>
+      </c>
+      <c r="J89" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K89" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L89" t="str">
+        <v>‘2023-03-27 09:05:56.398599420 -0500’</v>
+      </c>
+      <c r="M89" t="str">
+        <v>‘2023-02-13 19:05:00.000000000 -0500’</v>
+      </c>
+      <c r="N89" t="str">
+        <v>‘2023-02-13 18:57:00.000000000 -0500’</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>10.125.15.29</v>
+      </c>
+      <c r="B90" t="str">
+        <v>JUAN 23 E2</v>
+      </c>
+      <c r="C90" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F90" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3751        2854         140         166         755         499
+Swap:          2047         582        1465</v>
+      </c>
+      <c r="G90" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz
+model name	: Intel(R) Pentium(R) Gold G6400 CPU @ 4.00GHz</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Product Name: H510M-A PRO (MS-7D22)</v>
+      </c>
+      <c r="I90" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Patriot P210 256
+       serie: P210LIBA22102036423
+       tamaño: 238GiB (256GB)</v>
+      </c>
+      <c r="J90" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K90" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L90" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M90" t="str">
+        <v>‘2023-03-24 17:15:09.987497255 -0500’</v>
+      </c>
+      <c r="N90" t="str">
+        <v>‘2023-03-24 17:33:54.795519014 -0500’</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>10.125.15.28</v>
+      </c>
+      <c r="B91" t="str">
+        <v>JUAN 23 E1</v>
+      </c>
+      <c r="C91" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F91" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        1747         661          98          36         987         826
+Swap:          2047         901        1146</v>
+      </c>
+      <c r="G91" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz
+model name	: Intel(R) Pentium(R) CPU G2030 @ 3.00GHz</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Product Name: DH61CR</v>
+      </c>
+      <c r="I91" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2M072L147HHY
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J91" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K91" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L91" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M91" t="str">
+        <v>‘2023-03-24 17:18:35.392870017 -0500’</v>
+      </c>
+      <c r="N91" t="str">
+        <v>‘2023-03-24 17:37:19.936845437 -0500’</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>10.125.15.77</v>
+      </c>
+      <c r="B92" t="str">
+        <v>JUAN 23 3</v>
+      </c>
+      <c r="C92" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F92" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3793        2246         246          92        1300        1224
+Swap:          2047           0        2047</v>
+      </c>
+      <c r="G92" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H92" t="str">
+        <v>Product Name: H310M PRO-VDH PLUS (MS-7C09)</v>
+      </c>
+      <c r="I92" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: ADATA SU650
+       serie: 2L072L1N8S1X
+       tamaño: 111GiB (120GB)</v>
+      </c>
+      <c r="J92" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K92" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L92" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M92" t="str">
+        <v>‘2023-03-24 17:15:15.981477022 -0500’</v>
+      </c>
+      <c r="N92" t="str">
+        <v>‘2023-03-24 17:33:28.140259768 -0500’</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>3.3.3.55</v>
+      </c>
+      <c r="B93" t="str">
+        <v>INMACULADA</v>
+      </c>
+      <c r="C93" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Static hostname: gamble</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Operating System: Ubuntu 20.04.3 LTS</v>
+      </c>
+      <c r="F93" t="str" xml:space="preserve">
+        <v xml:space="preserve">total       usado       libre  compartido búfer/caché  disponible
+Memoria:        3765        2613         137         137        1014         789
+Swap:          2047           2        2045</v>
+      </c>
+      <c r="G93" t="str" xml:space="preserve">
+        <v xml:space="preserve">model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz
+model name	: Intel(R) Core(TM) i3-9100 CPU @ 3.60GHz</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Product Name: PRIME H370M-PLUS</v>
+      </c>
+      <c r="I93" t="str" xml:space="preserve">
+        <v xml:space="preserve">Disco Solido descripción: ATA Disk
+       producto: Lexar 128GB SSD
+       serie: LG5397W104031
+       tamaño: 119GiB (128GB)</v>
+      </c>
+      <c r="J93" t="str">
+        <v>echo "BnetPosSlim.sh - Rel3.9 RS:39008905";</v>
+      </c>
+      <c r="K93" t="str">
+        <v>‘2023-03-04 07:48:07.000000000 -0500’</v>
+      </c>
+      <c r="L93" t="str">
+        <v>‘2023-02-15 15:32:00.000000000 -0500’</v>
+      </c>
+      <c r="M93" t="str">
+        <v>‘2023-03-24 17:14:05.427658095 -0500’</v>
+      </c>
+      <c r="N93" t="str">
+        <v>‘2023-03-24 17:33:31.959661842 -0500’</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N93"/>
   </ignoredErrors>
 </worksheet>
 </file>